--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Thbs1-Itga6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Thbs1-Itga6.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>31.645482</v>
+        <v>22.0547115</v>
       </c>
       <c r="H2">
-        <v>63.290964</v>
+        <v>44.109423</v>
       </c>
       <c r="I2">
-        <v>0.03555980726701225</v>
+        <v>0.01098937797168511</v>
       </c>
       <c r="J2">
-        <v>0.02448461412159849</v>
+        <v>0.007456236747308206</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>213.535248</v>
+        <v>228.691925</v>
       </c>
       <c r="N2">
-        <v>427.070496</v>
+        <v>457.38385</v>
       </c>
       <c r="O2">
-        <v>0.4263820193694889</v>
+        <v>0.5727940074410816</v>
       </c>
       <c r="P2">
-        <v>0.3329095091851672</v>
+        <v>0.4759340026548169</v>
       </c>
       <c r="Q2">
-        <v>6757.425846949537</v>
+        <v>5043.734428254637</v>
       </c>
       <c r="R2">
-        <v>27029.70338779815</v>
+        <v>20174.93771301855</v>
       </c>
       <c r="S2">
-        <v>0.01516206243089851</v>
+        <v>0.006294649847686257</v>
       </c>
       <c r="T2">
-        <v>0.008151160869809567</v>
+        <v>0.003548676599888327</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>31.645482</v>
+        <v>22.0547115</v>
       </c>
       <c r="H3">
-        <v>63.290964</v>
+        <v>44.109423</v>
       </c>
       <c r="I3">
-        <v>0.03555980726701225</v>
+        <v>0.01098937797168511</v>
       </c>
       <c r="J3">
-        <v>0.02448461412159849</v>
+        <v>0.007456236747308206</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>1.424846</v>
       </c>
       <c r="O3">
-        <v>0.0009483660121076572</v>
+        <v>0.00118958179266189</v>
       </c>
       <c r="P3">
-        <v>0.001110694339616588</v>
+        <v>0.001482633590903363</v>
       </c>
       <c r="Q3">
-        <v>15.029979481924</v>
+        <v>10.474855820643</v>
       </c>
       <c r="R3">
-        <v>90.17987689154401</v>
+        <v>62.849134923858</v>
       </c>
       <c r="S3">
-        <v>3.37237126091333E-05</v>
+        <v>1.307276394779625E-05</v>
       </c>
       <c r="T3">
-        <v>2.719492231255582E-05</v>
+        <v>1.105486706328718E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>31.645482</v>
+        <v>22.0547115</v>
       </c>
       <c r="H4">
-        <v>63.290964</v>
+        <v>44.109423</v>
       </c>
       <c r="I4">
-        <v>0.03555980726701225</v>
+        <v>0.01098937797168511</v>
       </c>
       <c r="J4">
-        <v>0.02448461412159849</v>
+        <v>0.007456236747308206</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>76.27410400000001</v>
+        <v>38.30460633333333</v>
       </c>
       <c r="N4">
-        <v>228.822312</v>
+        <v>114.913819</v>
       </c>
       <c r="O4">
-        <v>0.1523022863612588</v>
+        <v>0.09593976247794071</v>
       </c>
       <c r="P4">
-        <v>0.1783713094021254</v>
+        <v>0.1195743877642841</v>
       </c>
       <c r="Q4">
-        <v>2413.730785198128</v>
+        <v>844.7970418027395</v>
       </c>
       <c r="R4">
-        <v>14482.38471118877</v>
+        <v>5068.782250816437</v>
       </c>
       <c r="S4">
-        <v>0.005415839949331671</v>
+        <v>0.001054318312383783</v>
       </c>
       <c r="T4">
-        <v>0.004367352681075295</v>
+        <v>0.0008915749440849358</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>31.645482</v>
+        <v>22.0547115</v>
       </c>
       <c r="H5">
-        <v>63.290964</v>
+        <v>44.109423</v>
       </c>
       <c r="I5">
-        <v>0.03555980726701225</v>
+        <v>0.01098937797168511</v>
       </c>
       <c r="J5">
-        <v>0.02448461412159849</v>
+        <v>0.007456236747308206</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.0442065</v>
+        <v>8.054906000000001</v>
       </c>
       <c r="N5">
-        <v>12.088413</v>
+        <v>16.109812</v>
       </c>
       <c r="O5">
-        <v>0.01206892537458823</v>
+        <v>0.02017474769737153</v>
       </c>
       <c r="P5">
-        <v>0.009423146005987718</v>
+        <v>0.01676317890799293</v>
       </c>
       <c r="Q5">
-        <v>191.271828000033</v>
+        <v>177.648627989619</v>
       </c>
       <c r="R5">
-        <v>765.087312000132</v>
+        <v>710.5945119584761</v>
       </c>
       <c r="S5">
-        <v>0.0004291686602403111</v>
+        <v>0.0002217079279297996</v>
       </c>
       <c r="T5">
-        <v>0.0002307220937680913</v>
+        <v>0.0001249902305754787</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>31.645482</v>
+        <v>22.0547115</v>
       </c>
       <c r="H6">
-        <v>63.290964</v>
+        <v>44.109423</v>
       </c>
       <c r="I6">
-        <v>0.03555980726701225</v>
+        <v>0.01098937797168511</v>
       </c>
       <c r="J6">
-        <v>0.02448461412159849</v>
+        <v>0.007456236747308206</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>146.059807</v>
+        <v>21.28819633333333</v>
       </c>
       <c r="N6">
-        <v>438.179421</v>
+        <v>63.864589</v>
       </c>
       <c r="O6">
-        <v>0.291648690512106</v>
+        <v>0.05331955332031307</v>
       </c>
       <c r="P6">
-        <v>0.3415691258151223</v>
+        <v>0.06645475014186616</v>
       </c>
       <c r="Q6">
-        <v>4622.132993341975</v>
+        <v>469.5050284870244</v>
       </c>
       <c r="R6">
-        <v>27732.79796005184</v>
+        <v>2817.030170922147</v>
       </c>
       <c r="S6">
-        <v>0.01037097122428699</v>
+        <v>0.0005859487247183379</v>
       </c>
       <c r="T6">
-        <v>0.008363188241434998</v>
+        <v>0.0004955023500409677</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>31.645482</v>
+        <v>22.0547115</v>
       </c>
       <c r="H7">
-        <v>63.290964</v>
+        <v>44.109423</v>
       </c>
       <c r="I7">
-        <v>0.03555980726701225</v>
+        <v>0.01098937797168511</v>
       </c>
       <c r="J7">
-        <v>0.02448461412159849</v>
+        <v>0.007456236747308206</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>58.41903299999999</v>
+        <v>102.442257</v>
       </c>
       <c r="N7">
-        <v>175.257099</v>
+        <v>307.326771</v>
       </c>
       <c r="O7">
-        <v>0.1166497123704505</v>
+        <v>0.2565823472706314</v>
       </c>
       <c r="P7">
-        <v>0.1366162152519809</v>
+        <v>0.3197910469401364</v>
       </c>
       <c r="Q7">
-        <v>1848.698457258906</v>
+        <v>2259.334423543855</v>
       </c>
       <c r="R7">
-        <v>11092.19074355344</v>
+        <v>13556.00654126313</v>
       </c>
       <c r="S7">
-        <v>0.004148041289645633</v>
+        <v>0.002819680395019135</v>
       </c>
       <c r="T7">
-        <v>0.00334499531319799</v>
+        <v>0.002384437755655209</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>249.682331</v>
       </c>
       <c r="I8">
-        <v>0.09352209759714787</v>
+        <v>0.04147040581646828</v>
       </c>
       <c r="J8">
-        <v>0.09659160077758067</v>
+        <v>0.04220618736172928</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>213.535248</v>
+        <v>228.691925</v>
       </c>
       <c r="N8">
-        <v>427.070496</v>
+        <v>457.38385</v>
       </c>
       <c r="O8">
-        <v>0.4263820193694889</v>
+        <v>0.5727940074410816</v>
       </c>
       <c r="P8">
-        <v>0.3329095091851672</v>
+        <v>0.4759340026548169</v>
       </c>
       <c r="Q8">
-        <v>17771.9928237677</v>
+        <v>19033.44430495906</v>
       </c>
       <c r="R8">
-        <v>106631.9569426062</v>
+        <v>114200.6658297543</v>
       </c>
       <c r="S8">
-        <v>0.03987614082914234</v>
+        <v>0.02375399993782281</v>
       </c>
       <c r="T8">
-        <v>0.03215626240627399</v>
+        <v>0.02008735968786697</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>249.682331</v>
       </c>
       <c r="I9">
-        <v>0.09352209759714787</v>
+        <v>0.04147040581646828</v>
       </c>
       <c r="J9">
-        <v>0.09659160077758067</v>
+        <v>0.04220618736172928</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>1.424846</v>
       </c>
       <c r="O9">
-        <v>0.0009483660121076572</v>
+        <v>0.00118958179266189</v>
       </c>
       <c r="P9">
-        <v>0.001110694339616588</v>
+        <v>0.001482633590903363</v>
       </c>
       <c r="Q9">
         <v>39.52876339955845</v>
@@ -1013,10 +1013,10 @@
         <v>355.758870596026</v>
       </c>
       <c r="S9">
-        <v>8.869317874215023E-05</v>
+        <v>4.93324396935704E-05</v>
       </c>
       <c r="T9">
-        <v>0.0001072837442381641</v>
+        <v>6.257631112646084E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>249.682331</v>
       </c>
       <c r="I10">
-        <v>0.09352209759714787</v>
+        <v>0.04147040581646828</v>
       </c>
       <c r="J10">
-        <v>0.09659160077758067</v>
+        <v>0.04220618736172928</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>76.27410400000001</v>
+        <v>38.30460633333333</v>
       </c>
       <c r="N10">
-        <v>228.822312</v>
+        <v>114.913819</v>
       </c>
       <c r="O10">
-        <v>0.1523022863612588</v>
+        <v>0.09593976247794071</v>
       </c>
       <c r="P10">
-        <v>0.1783713094021254</v>
+        <v>0.1195743877642841</v>
       </c>
       <c r="Q10">
-        <v>6348.098693885476</v>
+        <v>3187.994465781343</v>
       </c>
       <c r="R10">
-        <v>57132.88824496928</v>
+        <v>28691.95019203209</v>
       </c>
       <c r="S10">
-        <v>0.01424362928934641</v>
+        <v>0.003978660883895778</v>
       </c>
       <c r="T10">
-        <v>0.01722917030794442</v>
+        <v>0.005046779013643444</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>249.682331</v>
       </c>
       <c r="I11">
-        <v>0.09352209759714787</v>
+        <v>0.04147040581646828</v>
       </c>
       <c r="J11">
-        <v>0.09659160077758067</v>
+        <v>0.04220618736172928</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.0442065</v>
+        <v>8.054906000000001</v>
       </c>
       <c r="N11">
-        <v>12.088413</v>
+        <v>16.109812</v>
       </c>
       <c r="O11">
-        <v>0.01206892537458823</v>
+        <v>0.02017474769737153</v>
       </c>
       <c r="P11">
-        <v>0.009423146005987718</v>
+        <v>0.01676317890799293</v>
       </c>
       <c r="Q11">
-        <v>503.0438559884505</v>
+        <v>670.3892353552955</v>
       </c>
       <c r="R11">
-        <v>3018.263135930703</v>
+        <v>4022.335412131773</v>
       </c>
       <c r="S11">
-        <v>0.001128711216774935</v>
+        <v>0.0008366549742548565</v>
       </c>
       <c r="T11">
-        <v>0.0009101967570792194</v>
+        <v>0.0007075098697689381</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>249.682331</v>
       </c>
       <c r="I12">
-        <v>0.09352209759714787</v>
+        <v>0.04147040581646828</v>
       </c>
       <c r="J12">
-        <v>0.09659160077758067</v>
+        <v>0.04220618736172928</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>146.059807</v>
+        <v>21.28819633333333</v>
       </c>
       <c r="N12">
-        <v>438.179421</v>
+        <v>63.864589</v>
       </c>
       <c r="O12">
-        <v>0.291648690512106</v>
+        <v>0.05331955332031307</v>
       </c>
       <c r="P12">
-        <v>0.3415691258151223</v>
+        <v>0.06645475014186616</v>
       </c>
       <c r="Q12">
-        <v>12156.18435905671</v>
+        <v>1771.76216109744</v>
       </c>
       <c r="R12">
-        <v>109405.6592315103</v>
+        <v>15945.85944987696</v>
       </c>
       <c r="S12">
-        <v>0.02727559729815355</v>
+        <v>0.002211183514146202</v>
       </c>
       <c r="T12">
-        <v>0.03299270863868152</v>
+        <v>0.002804801635564509</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>249.682331</v>
       </c>
       <c r="I13">
-        <v>0.09352209759714787</v>
+        <v>0.04147040581646828</v>
       </c>
       <c r="J13">
-        <v>0.09659160077758067</v>
+        <v>0.04220618736172928</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>58.41903299999999</v>
+        <v>102.442257</v>
       </c>
       <c r="N13">
-        <v>175.257099</v>
+        <v>307.326771</v>
       </c>
       <c r="O13">
-        <v>0.1166497123704505</v>
+        <v>0.2565823472706314</v>
       </c>
       <c r="P13">
-        <v>0.1366162152519809</v>
+        <v>0.3197910469401364</v>
       </c>
       <c r="Q13">
-        <v>4862.066778068641</v>
+        <v>8526.007173553689</v>
       </c>
       <c r="R13">
-        <v>43758.60100261777</v>
+        <v>76734.06456198321</v>
       </c>
       <c r="S13">
-        <v>0.01090932578498849</v>
+        <v>0.01064057406665508</v>
       </c>
       <c r="T13">
-        <v>0.01319597892336336</v>
+        <v>0.01349716084375896</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>524.5768890000001</v>
+        <v>931.6556396666668</v>
       </c>
       <c r="H14">
-        <v>1573.730667</v>
+        <v>2794.966919</v>
       </c>
       <c r="I14">
-        <v>0.5894633891046084</v>
+        <v>0.4642235271927754</v>
       </c>
       <c r="J14">
-        <v>0.6088102578564109</v>
+        <v>0.4724599333108166</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>213.535248</v>
+        <v>228.691925</v>
       </c>
       <c r="N14">
-        <v>427.070496</v>
+        <v>457.38385</v>
       </c>
       <c r="O14">
-        <v>0.4263820193694889</v>
+        <v>0.5727940074410816</v>
       </c>
       <c r="P14">
-        <v>0.3329095091851672</v>
+        <v>0.4759340026548169</v>
       </c>
       <c r="Q14">
-        <v>112015.6560876835</v>
+        <v>213062.1216724764</v>
       </c>
       <c r="R14">
-        <v>672093.936526101</v>
+        <v>1278372.730034858</v>
       </c>
       <c r="S14">
-        <v>0.2513365901908057</v>
+        <v>0.2659044544891837</v>
       </c>
       <c r="T14">
-        <v>0.2026787241298728</v>
+        <v>0.2248597471546449</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>524.5768890000001</v>
+        <v>931.6556396666668</v>
       </c>
       <c r="H15">
-        <v>1573.730667</v>
+        <v>2794.966919</v>
       </c>
       <c r="I15">
-        <v>0.5894633891046084</v>
+        <v>0.4642235271927754</v>
       </c>
       <c r="J15">
-        <v>0.6088102578564109</v>
+        <v>0.4724599333108166</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>1.424846</v>
       </c>
       <c r="O15">
-        <v>0.0009483660121076572</v>
+        <v>0.00118958179266189</v>
       </c>
       <c r="P15">
-        <v>0.001110694339616588</v>
+        <v>0.001482633590903363</v>
       </c>
       <c r="Q15">
-        <v>249.147093994698</v>
+        <v>442.4886038521639</v>
       </c>
       <c r="R15">
-        <v>2242.323845952282</v>
+        <v>3982.397434669475</v>
       </c>
       <c r="S15">
-        <v>0.0005590270436086017</v>
+        <v>0.0005522318556738072</v>
       </c>
       <c r="T15">
-        <v>0.0006762021073016308</v>
+        <v>0.0007004849674825796</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>524.5768890000001</v>
+        <v>931.6556396666668</v>
       </c>
       <c r="H16">
-        <v>1573.730667</v>
+        <v>2794.966919</v>
       </c>
       <c r="I16">
-        <v>0.5894633891046084</v>
+        <v>0.4642235271927754</v>
       </c>
       <c r="J16">
-        <v>0.6088102578564109</v>
+        <v>0.4724599333108166</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>76.27410400000001</v>
+        <v>38.30460633333333</v>
       </c>
       <c r="N16">
-        <v>228.822312</v>
+        <v>114.913819</v>
       </c>
       <c r="O16">
-        <v>0.1523022863612588</v>
+        <v>0.09593976247794071</v>
       </c>
       <c r="P16">
-        <v>0.1783713094021254</v>
+        <v>0.1195743877642841</v>
       </c>
       <c r="Q16">
-        <v>40011.63218758247</v>
+        <v>35686.70251566152</v>
       </c>
       <c r="R16">
-        <v>360104.6896882422</v>
+        <v>321180.3226409537</v>
       </c>
       <c r="S16">
-        <v>0.08977662188688817</v>
+        <v>0.04453749493554672</v>
       </c>
       <c r="T16">
-        <v>0.1085942828712936</v>
+        <v>0.0564941072687954</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>524.5768890000001</v>
+        <v>931.6556396666668</v>
       </c>
       <c r="H17">
-        <v>1573.730667</v>
+        <v>2794.966919</v>
       </c>
       <c r="I17">
-        <v>0.5894633891046084</v>
+        <v>0.4642235271927754</v>
       </c>
       <c r="J17">
-        <v>0.6088102578564109</v>
+        <v>0.4724599333108166</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.0442065</v>
+        <v>8.054906000000001</v>
       </c>
       <c r="N17">
-        <v>12.088413</v>
+        <v>16.109812</v>
       </c>
       <c r="O17">
-        <v>0.01206892537458823</v>
+        <v>0.02017474769737153</v>
       </c>
       <c r="P17">
-        <v>0.009423146005987718</v>
+        <v>0.01676317890799293</v>
       </c>
       <c r="Q17">
-        <v>3170.651042243579</v>
+        <v>7504.398601884874</v>
       </c>
       <c r="R17">
-        <v>19023.90625346147</v>
+        <v>45026.39161130924</v>
       </c>
       <c r="S17">
-        <v>0.007114189654155383</v>
+        <v>0.009365592536298135</v>
       </c>
       <c r="T17">
-        <v>0.005736907949723991</v>
+        <v>0.007919930388947628</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>524.5768890000001</v>
+        <v>931.6556396666668</v>
       </c>
       <c r="H18">
-        <v>1573.730667</v>
+        <v>2794.966919</v>
       </c>
       <c r="I18">
-        <v>0.5894633891046084</v>
+        <v>0.4642235271927754</v>
       </c>
       <c r="J18">
-        <v>0.6088102578564109</v>
+        <v>0.4724599333108166</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>146.059807</v>
+        <v>21.28819633333333</v>
       </c>
       <c r="N18">
-        <v>438.179421</v>
+        <v>63.864589</v>
       </c>
       <c r="O18">
-        <v>0.291648690512106</v>
+        <v>0.05331955332031307</v>
       </c>
       <c r="P18">
-        <v>0.3415691258151223</v>
+        <v>0.06645475014186616</v>
       </c>
       <c r="Q18">
-        <v>76619.59916400044</v>
+        <v>19833.26817228126</v>
       </c>
       <c r="R18">
-        <v>689576.3924760038</v>
+        <v>178499.4135505313</v>
       </c>
       <c r="S18">
-        <v>0.1719162255371871</v>
+        <v>0.02475219111069899</v>
       </c>
       <c r="T18">
-        <v>0.2079507875632935</v>
+        <v>0.03139720682021307</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>524.5768890000001</v>
+        <v>931.6556396666668</v>
       </c>
       <c r="H19">
-        <v>1573.730667</v>
+        <v>2794.966919</v>
       </c>
       <c r="I19">
-        <v>0.5894633891046084</v>
+        <v>0.4642235271927754</v>
       </c>
       <c r="J19">
-        <v>0.6088102578564109</v>
+        <v>0.4724599333108166</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>58.41903299999999</v>
+        <v>102.442257</v>
       </c>
       <c r="N19">
-        <v>175.257099</v>
+        <v>307.326771</v>
       </c>
       <c r="O19">
-        <v>0.1166497123704505</v>
+        <v>0.2565823472706314</v>
       </c>
       <c r="P19">
-        <v>0.1366162152519809</v>
+        <v>0.3197910469401364</v>
       </c>
       <c r="Q19">
-        <v>30645.27458952834</v>
+        <v>95440.90647423208</v>
       </c>
       <c r="R19">
-        <v>275807.471305755</v>
+        <v>858968.1582680887</v>
       </c>
       <c r="S19">
-        <v>0.06876073479196348</v>
+        <v>0.1191115622653741</v>
       </c>
       <c r="T19">
-        <v>0.0831733532349254</v>
+        <v>0.1510884567107331</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>53.1948375</v>
+        <v>82.90491900000001</v>
       </c>
       <c r="H20">
-        <v>106.389675</v>
+        <v>165.809838</v>
       </c>
       <c r="I20">
-        <v>0.05977466764766091</v>
+        <v>0.04130969886425121</v>
       </c>
       <c r="J20">
-        <v>0.0411576941520005</v>
+        <v>0.02802841939602839</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>213.535248</v>
+        <v>228.691925</v>
       </c>
       <c r="N20">
-        <v>427.070496</v>
+        <v>457.38385</v>
       </c>
       <c r="O20">
-        <v>0.4263820193694889</v>
+        <v>0.5727940074410816</v>
       </c>
       <c r="P20">
-        <v>0.3329095091851672</v>
+        <v>0.4759340026548169</v>
       </c>
       <c r="Q20">
-        <v>11358.9728178822</v>
+        <v>18959.68551807908</v>
       </c>
       <c r="R20">
-        <v>45435.8912715288</v>
+        <v>75838.74207231631</v>
       </c>
       <c r="S20">
-        <v>0.02548684349874972</v>
+        <v>0.02366194795863875</v>
       </c>
       <c r="T20">
-        <v>0.01370178775933571</v>
+        <v>0.0133396778312397</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>53.1948375</v>
+        <v>82.90491900000001</v>
       </c>
       <c r="H21">
-        <v>106.389675</v>
+        <v>165.809838</v>
       </c>
       <c r="I21">
-        <v>0.05977466764766091</v>
+        <v>0.04130969886425121</v>
       </c>
       <c r="J21">
-        <v>0.0411576941520005</v>
+        <v>0.02802841939602839</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>1.424846</v>
       </c>
       <c r="O21">
-        <v>0.0009483660121076572</v>
+        <v>0.00118958179266189</v>
       </c>
       <c r="P21">
-        <v>0.001110694339616588</v>
+        <v>0.001482633590903363</v>
       </c>
       <c r="Q21">
-        <v>25.264817144175</v>
+        <v>39.375580739158</v>
       </c>
       <c r="R21">
-        <v>151.58890286505</v>
+        <v>236.253484434948</v>
       </c>
       <c r="S21">
-        <v>5.668826318207278E-05</v>
+        <v>4.914126562925879E-05</v>
       </c>
       <c r="T21">
-        <v>4.571361792629769E-05</v>
+        <v>4.155587609647904E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>53.1948375</v>
+        <v>82.90491900000001</v>
       </c>
       <c r="H22">
-        <v>106.389675</v>
+        <v>165.809838</v>
       </c>
       <c r="I22">
-        <v>0.05977466764766091</v>
+        <v>0.04130969886425121</v>
       </c>
       <c r="J22">
-        <v>0.0411576941520005</v>
+        <v>0.02802841939602839</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>76.27410400000001</v>
+        <v>38.30460633333333</v>
       </c>
       <c r="N22">
-        <v>228.822312</v>
+        <v>114.913819</v>
       </c>
       <c r="O22">
-        <v>0.1523022863612588</v>
+        <v>0.09593976247794071</v>
       </c>
       <c r="P22">
-        <v>0.1783713094021254</v>
+        <v>0.1195743877642841</v>
       </c>
       <c r="Q22">
-        <v>4057.3885677381</v>
+        <v>3175.640285391887</v>
       </c>
       <c r="R22">
-        <v>24344.3314064286</v>
+        <v>19053.84171235132</v>
       </c>
       <c r="S22">
-        <v>0.009103818549223123</v>
+        <v>0.003963242697071518</v>
       </c>
       <c r="T22">
-        <v>0.00734135179786453</v>
+        <v>0.00335148108928068</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>53.1948375</v>
+        <v>82.90491900000001</v>
       </c>
       <c r="H23">
-        <v>106.389675</v>
+        <v>165.809838</v>
       </c>
       <c r="I23">
-        <v>0.05977466764766091</v>
+        <v>0.04130969886425121</v>
       </c>
       <c r="J23">
-        <v>0.0411576941520005</v>
+        <v>0.02802841939602839</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>6.0442065</v>
+        <v>8.054906000000001</v>
       </c>
       <c r="N23">
-        <v>12.088413</v>
+        <v>16.109812</v>
       </c>
       <c r="O23">
-        <v>0.01206892537458823</v>
+        <v>0.02017474769737153</v>
       </c>
       <c r="P23">
-        <v>0.009423146005987718</v>
+        <v>0.01676317890799293</v>
       </c>
       <c r="Q23">
-        <v>321.5205825839437</v>
+        <v>667.7913294826142</v>
       </c>
       <c r="R23">
-        <v>1286.082330335775</v>
+        <v>2671.165317930457</v>
       </c>
       <c r="S23">
-        <v>0.000721416003130433</v>
+        <v>0.0008334127520406635</v>
       </c>
       <c r="T23">
-        <v>0.0003878349612640875</v>
+        <v>0.000469845408843883</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>53.1948375</v>
+        <v>82.90491900000001</v>
       </c>
       <c r="H24">
-        <v>106.389675</v>
+        <v>165.809838</v>
       </c>
       <c r="I24">
-        <v>0.05977466764766091</v>
+        <v>0.04130969886425121</v>
       </c>
       <c r="J24">
-        <v>0.0411576941520005</v>
+        <v>0.02802841939602839</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>146.059807</v>
+        <v>21.28819633333333</v>
       </c>
       <c r="N24">
-        <v>438.179421</v>
+        <v>63.864589</v>
       </c>
       <c r="O24">
-        <v>0.291648690512106</v>
+        <v>0.05331955332031307</v>
       </c>
       <c r="P24">
-        <v>0.3415691258151223</v>
+        <v>0.06645475014186616</v>
       </c>
       <c r="Q24">
-        <v>7769.627698646363</v>
+        <v>1764.896192671097</v>
       </c>
       <c r="R24">
-        <v>46617.76619187817</v>
+        <v>10589.37715602658</v>
       </c>
       <c r="S24">
-        <v>0.01743320354523666</v>
+        <v>0.002202614691238519</v>
       </c>
       <c r="T24">
-        <v>0.01405819761206498</v>
+        <v>0.001862621607834502</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>53.1948375</v>
+        <v>82.90491900000001</v>
       </c>
       <c r="H25">
-        <v>106.389675</v>
+        <v>165.809838</v>
       </c>
       <c r="I25">
-        <v>0.05977466764766091</v>
+        <v>0.04130969886425121</v>
       </c>
       <c r="J25">
-        <v>0.0411576941520005</v>
+        <v>0.02802841939602839</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>58.41903299999999</v>
+        <v>102.442257</v>
       </c>
       <c r="N25">
-        <v>175.257099</v>
+        <v>307.326771</v>
       </c>
       <c r="O25">
-        <v>0.1166497123704505</v>
+        <v>0.2565823472706314</v>
       </c>
       <c r="P25">
-        <v>0.1366162152519809</v>
+        <v>0.3197910469401364</v>
       </c>
       <c r="Q25">
-        <v>3107.590967342137</v>
+        <v>8492.967018762183</v>
       </c>
       <c r="R25">
-        <v>18645.54580405282</v>
+        <v>50957.8021125731</v>
       </c>
       <c r="S25">
-        <v>0.006972697788138916</v>
+        <v>0.01059933949963251</v>
       </c>
       <c r="T25">
-        <v>0.005622808403544894</v>
+        <v>0.008963237582733144</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>15.79677433333333</v>
+        <v>349.8049826666667</v>
       </c>
       <c r="H26">
-        <v>47.390323</v>
+        <v>1049.414948</v>
       </c>
       <c r="I26">
-        <v>0.01775072507139627</v>
+        <v>0.174300134050847</v>
       </c>
       <c r="J26">
-        <v>0.01833332435500451</v>
+        <v>0.1773926242121129</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>213.535248</v>
+        <v>228.691925</v>
       </c>
       <c r="N26">
-        <v>427.070496</v>
+        <v>457.38385</v>
       </c>
       <c r="O26">
-        <v>0.4263820193694889</v>
+        <v>0.5727940074410816</v>
       </c>
       <c r="P26">
-        <v>0.3329095091851672</v>
+        <v>0.4759340026548169</v>
       </c>
       <c r="Q26">
-        <v>3373.168124868369</v>
+        <v>79997.57486063165</v>
       </c>
       <c r="R26">
-        <v>20239.00874921021</v>
+        <v>479985.4491637899</v>
       </c>
       <c r="S26">
-        <v>0.007568590001214555</v>
+        <v>0.0998380722805024</v>
       </c>
       <c r="T26">
-        <v>0.006103338012757024</v>
+        <v>0.08442718168271271</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>15.79677433333333</v>
+        <v>349.8049826666667</v>
       </c>
       <c r="H27">
-        <v>47.390323</v>
+        <v>1049.414948</v>
       </c>
       <c r="I27">
-        <v>0.01775072507139627</v>
+        <v>0.174300134050847</v>
       </c>
       <c r="J27">
-        <v>0.01833332435500451</v>
+        <v>0.1773926242121129</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>1.424846</v>
       </c>
       <c r="O27">
-        <v>0.0009483660121076572</v>
+        <v>0.00118958179266189</v>
       </c>
       <c r="P27">
-        <v>0.001110694339616588</v>
+        <v>0.001482633590903363</v>
       </c>
       <c r="Q27">
-        <v>7.50265690725089</v>
+        <v>166.1394101108898</v>
       </c>
       <c r="R27">
-        <v>67.52391216525801</v>
+        <v>1495.254690998008</v>
       </c>
       <c r="S27">
-        <v>1.683418434797948E-05</v>
+        <v>0.0002073442659254143</v>
       </c>
       <c r="T27">
-        <v>2.036271958745844E-05</v>
+        <v>0.0002630082634353759</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>15.79677433333333</v>
+        <v>349.8049826666667</v>
       </c>
       <c r="H28">
-        <v>47.390323</v>
+        <v>1049.414948</v>
       </c>
       <c r="I28">
-        <v>0.01775072507139627</v>
+        <v>0.174300134050847</v>
       </c>
       <c r="J28">
-        <v>0.01833332435500451</v>
+        <v>0.1773926242121129</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>76.27410400000001</v>
+        <v>38.30460633333333</v>
       </c>
       <c r="N28">
-        <v>228.822312</v>
+        <v>114.913819</v>
       </c>
       <c r="O28">
-        <v>0.1523022863612588</v>
+        <v>0.09593976247794071</v>
       </c>
       <c r="P28">
-        <v>0.1783713094021254</v>
+        <v>0.1195743877642841</v>
       </c>
       <c r="Q28">
-        <v>1204.884808365197</v>
+        <v>13399.14215448516</v>
       </c>
       <c r="R28">
-        <v>10843.96327528678</v>
+        <v>120592.2793903664</v>
       </c>
       <c r="S28">
-        <v>0.00270347601294377</v>
+        <v>0.01672231346071149</v>
       </c>
       <c r="T28">
-        <v>0.003270139070896032</v>
+        <v>0.02121161443406313</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>15.79677433333333</v>
+        <v>349.8049826666667</v>
       </c>
       <c r="H29">
-        <v>47.390323</v>
+        <v>1049.414948</v>
       </c>
       <c r="I29">
-        <v>0.01775072507139627</v>
+        <v>0.174300134050847</v>
       </c>
       <c r="J29">
-        <v>0.01833332435500451</v>
+        <v>0.1773926242121129</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>6.0442065</v>
+        <v>8.054906000000001</v>
       </c>
       <c r="N29">
-        <v>12.088413</v>
+        <v>16.109812</v>
       </c>
       <c r="O29">
-        <v>0.01206892537458823</v>
+        <v>0.02017474769737153</v>
       </c>
       <c r="P29">
-        <v>0.009423146005987718</v>
+        <v>0.01676317890799293</v>
       </c>
       <c r="Q29">
-        <v>95.4789661045665</v>
+        <v>2817.64625371163</v>
       </c>
       <c r="R29">
-        <v>572.873796627399</v>
+        <v>16905.87752226978</v>
       </c>
       <c r="S29">
-        <v>0.0002142321762315139</v>
+        <v>0.003516461228093876</v>
       </c>
       <c r="T29">
-        <v>0.0001727575921723381</v>
+        <v>0.002973664296626008</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>15.79677433333333</v>
+        <v>349.8049826666667</v>
       </c>
       <c r="H30">
-        <v>47.390323</v>
+        <v>1049.414948</v>
       </c>
       <c r="I30">
-        <v>0.01775072507139627</v>
+        <v>0.174300134050847</v>
       </c>
       <c r="J30">
-        <v>0.01833332435500451</v>
+        <v>0.1773926242121129</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>146.059807</v>
+        <v>21.28819633333333</v>
       </c>
       <c r="N30">
-        <v>438.179421</v>
+        <v>63.864589</v>
       </c>
       <c r="O30">
-        <v>0.291648690512106</v>
+        <v>0.05331955332031307</v>
       </c>
       <c r="P30">
-        <v>0.3415691258151223</v>
+        <v>0.06645475014186616</v>
       </c>
       <c r="Q30">
-        <v>2307.273810349221</v>
+        <v>7446.717149386264</v>
       </c>
       <c r="R30">
-        <v>20765.46429314298</v>
+        <v>67020.45434447637</v>
       </c>
       <c r="S30">
-        <v>0.00517697572271313</v>
+        <v>0.009293605291261855</v>
       </c>
       <c r="T30">
-        <v>0.006262097573223983</v>
+        <v>0.01178858251902592</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>15.79677433333333</v>
+        <v>349.8049826666667</v>
       </c>
       <c r="H31">
-        <v>47.390323</v>
+        <v>1049.414948</v>
       </c>
       <c r="I31">
-        <v>0.01775072507139627</v>
+        <v>0.174300134050847</v>
       </c>
       <c r="J31">
-        <v>0.01833332435500451</v>
+        <v>0.1773926242121129</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>58.41903299999999</v>
+        <v>102.442257</v>
       </c>
       <c r="N31">
-        <v>175.257099</v>
+        <v>307.326771</v>
       </c>
       <c r="O31">
-        <v>0.1166497123704505</v>
+        <v>0.2565823472706314</v>
       </c>
       <c r="P31">
-        <v>0.1366162152519809</v>
+        <v>0.3197910469401364</v>
       </c>
       <c r="Q31">
-        <v>922.8322810725529</v>
+        <v>35834.81193421921</v>
       </c>
       <c r="R31">
-        <v>8305.490529652976</v>
+        <v>322513.3074079729</v>
       </c>
       <c r="S31">
-        <v>0.002070616973945318</v>
+        <v>0.04472233752435204</v>
       </c>
       <c r="T31">
-        <v>0.00250462938636768</v>
+        <v>0.05672857301624979</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>181.4813383333333</v>
+        <v>537.2640283333333</v>
       </c>
       <c r="H32">
-        <v>544.4440149999999</v>
+        <v>1611.792085</v>
       </c>
       <c r="I32">
-        <v>0.2039293133121744</v>
+        <v>0.2677068561039729</v>
       </c>
       <c r="J32">
-        <v>0.2106225087374049</v>
+        <v>0.2724565989720045</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>213.535248</v>
+        <v>228.691925</v>
       </c>
       <c r="N32">
-        <v>427.070496</v>
+        <v>457.38385</v>
       </c>
       <c r="O32">
-        <v>0.4263820193694889</v>
+        <v>0.5727940074410816</v>
       </c>
       <c r="P32">
-        <v>0.3329095091851672</v>
+        <v>0.4759340026548169</v>
       </c>
       <c r="Q32">
-        <v>38752.66258838023</v>
+        <v>122867.9448728045</v>
       </c>
       <c r="R32">
-        <v>232515.9755302814</v>
+        <v>737207.6692368272</v>
       </c>
       <c r="S32">
-        <v>0.08695179241867811</v>
+        <v>0.1533408829272476</v>
       </c>
       <c r="T32">
-        <v>0.07011823600711806</v>
+        <v>0.1296713596984644</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>181.4813383333333</v>
+        <v>537.2640283333333</v>
       </c>
       <c r="H33">
-        <v>544.4440149999999</v>
+        <v>1611.792085</v>
       </c>
       <c r="I33">
-        <v>0.2039293133121744</v>
+        <v>0.2677068561039729</v>
       </c>
       <c r="J33">
-        <v>0.2106225087374049</v>
+        <v>0.2724565989720045</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>1.424846</v>
       </c>
       <c r="O33">
-        <v>0.0009483660121076572</v>
+        <v>0.00118958179266189</v>
       </c>
       <c r="P33">
-        <v>0.001110694339616588</v>
+        <v>0.001482633590903363</v>
       </c>
       <c r="Q33">
-        <v>86.19431966629888</v>
+        <v>255.1728339048789</v>
       </c>
       <c r="R33">
-        <v>775.7488769966899</v>
+        <v>2296.55550514391</v>
       </c>
       <c r="S33">
-        <v>0.0001933996296177198</v>
+        <v>0.0003184592017920427</v>
       </c>
       <c r="T33">
-        <v>0.000233937228250481</v>
+        <v>0.0004039533056991806</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>181.4813383333333</v>
+        <v>537.2640283333333</v>
       </c>
       <c r="H34">
-        <v>544.4440149999999</v>
+        <v>1611.792085</v>
       </c>
       <c r="I34">
-        <v>0.2039293133121744</v>
+        <v>0.2677068561039729</v>
       </c>
       <c r="J34">
-        <v>0.2106225087374049</v>
+        <v>0.2724565989720045</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>76.27410400000001</v>
+        <v>38.30460633333333</v>
       </c>
       <c r="N34">
-        <v>228.822312</v>
+        <v>114.913819</v>
       </c>
       <c r="O34">
-        <v>0.1523022863612588</v>
+        <v>0.09593976247794071</v>
       </c>
       <c r="P34">
-        <v>0.1783713094021254</v>
+        <v>0.1195743877642841</v>
       </c>
       <c r="Q34">
-        <v>13842.32647409585</v>
+        <v>20579.68710236917</v>
       </c>
       <c r="R34">
-        <v>124580.9382668627</v>
+        <v>185217.1839213226</v>
       </c>
       <c r="S34">
-        <v>0.03105890067352564</v>
+        <v>0.02568373218833141</v>
       </c>
       <c r="T34">
-        <v>0.03756901267305152</v>
+        <v>0.03257883101441651</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>181.4813383333333</v>
+        <v>537.2640283333333</v>
       </c>
       <c r="H35">
-        <v>544.4440149999999</v>
+        <v>1611.792085</v>
       </c>
       <c r="I35">
-        <v>0.2039293133121744</v>
+        <v>0.2677068561039729</v>
       </c>
       <c r="J35">
-        <v>0.2106225087374049</v>
+        <v>0.2724565989720045</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>6.0442065</v>
+        <v>8.054906000000001</v>
       </c>
       <c r="N35">
-        <v>12.088413</v>
+        <v>16.109812</v>
       </c>
       <c r="O35">
-        <v>0.01206892537458823</v>
+        <v>0.02017474769737153</v>
       </c>
       <c r="P35">
-        <v>0.009423146005987718</v>
+        <v>0.01676317890799293</v>
       </c>
       <c r="Q35">
-        <v>1096.910684783032</v>
+        <v>4327.611245406337</v>
       </c>
       <c r="R35">
-        <v>6581.464108698194</v>
+        <v>25965.66747243802</v>
       </c>
       <c r="S35">
-        <v>0.002461207664055655</v>
+        <v>0.005400918278754199</v>
       </c>
       <c r="T35">
-        <v>0.00198472665197999</v>
+        <v>0.004567238713230994</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>181.4813383333333</v>
+        <v>537.2640283333333</v>
       </c>
       <c r="H36">
-        <v>544.4440149999999</v>
+        <v>1611.792085</v>
       </c>
       <c r="I36">
-        <v>0.2039293133121744</v>
+        <v>0.2677068561039729</v>
       </c>
       <c r="J36">
-        <v>0.2106225087374049</v>
+        <v>0.2724565989720045</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>146.059807</v>
+        <v>21.28819633333333</v>
       </c>
       <c r="N36">
-        <v>438.179421</v>
+        <v>63.864589</v>
       </c>
       <c r="O36">
-        <v>0.291648690512106</v>
+        <v>0.05331955332031307</v>
       </c>
       <c r="P36">
-        <v>0.3415691258151223</v>
+        <v>0.06645475014186616</v>
       </c>
       <c r="Q36">
-        <v>26507.12925106836</v>
+        <v>11437.38211799756</v>
       </c>
       <c r="R36">
-        <v>238564.1632596153</v>
+        <v>102936.439061978</v>
       </c>
       <c r="S36">
-        <v>0.05947571718452865</v>
+        <v>0.01427400998824916</v>
       </c>
       <c r="T36">
-        <v>0.07194214618642336</v>
+        <v>0.01810603520918719</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>181.4813383333333</v>
+        <v>537.2640283333333</v>
       </c>
       <c r="H37">
-        <v>544.4440149999999</v>
+        <v>1611.792085</v>
       </c>
       <c r="I37">
-        <v>0.2039293133121744</v>
+        <v>0.2677068561039729</v>
       </c>
       <c r="J37">
-        <v>0.2106225087374049</v>
+        <v>0.2724565989720045</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>58.41903299999999</v>
+        <v>102.442257</v>
       </c>
       <c r="N37">
-        <v>175.257099</v>
+        <v>307.326771</v>
       </c>
       <c r="O37">
-        <v>0.1166497123704505</v>
+        <v>0.2565823472706314</v>
       </c>
       <c r="P37">
-        <v>0.1366162152519809</v>
+        <v>0.3197910469401364</v>
       </c>
       <c r="Q37">
-        <v>10601.96429297916</v>
+        <v>55038.53966737861</v>
       </c>
       <c r="R37">
-        <v>95417.67863681246</v>
+        <v>495346.8570064075</v>
       </c>
       <c r="S37">
-        <v>0.02378829574176861</v>
+        <v>0.06868885351959851</v>
       </c>
       <c r="T37">
-        <v>0.02877444999058153</v>
+        <v>0.08712918103100621</v>
       </c>
     </row>
   </sheetData>
